--- a/Steering_Wheel_BOM.xlsx
+++ b/Steering_Wheel_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stm32Projects\steeringWheel_MeterBox_STM32_FreeRTOS\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stm32Projects\steeringWheel_MeterBox_STM32_FreeRTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C07242A-4588-450C-8977-B08A05E610A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6C896E-83FB-40F4-B288-A203135BD0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t>物料</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -418,6 +418,22 @@
   </si>
   <si>
     <t>总计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高亮度屏幕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕KD035HVFMD145-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系17331234849</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCBA</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -739,87 +755,87 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1113,10 +1129,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1132,774 +1148,809 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6">
+      <c r="D2" s="21"/>
+      <c r="E2" s="16">
         <v>150</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="16">
         <v>150</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
         <f>SUM(F2)</f>
         <v>150</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="17">
         <v>400</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="17">
         <v>400</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="16"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="16"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="16"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="16"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
         <f>SUM(F7)</f>
         <v>400</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="8">
         <v>12</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="8">
         <v>5</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="8">
         <v>4</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="8">
         <v>3.2</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="8">
         <v>17</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="8">
         <v>3.1</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="8">
         <v>7</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="8">
         <v>3.4</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="8">
         <v>8</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="8">
         <v>3.1</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="8">
         <v>4</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="8">
         <v>4</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="8">
         <v>4</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="8">
         <v>2</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="8">
         <v>5.6</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="21"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="8">
         <v>4</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="8">
         <v>5.7</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="8">
         <v>4</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="8">
         <v>8</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="21"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="8">
         <v>2</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="8">
         <v>4.5</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="21"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
         <f>SUM(F16:F27)</f>
         <v>42.199999999999996</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10">
         <v>1.2</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="10">
         <v>12</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="10">
         <v>10.64</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="24"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="10">
         <v>9.5</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="24"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="10">
         <v>12</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="10">
         <v>13</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="24"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="10">
         <v>2</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="10">
         <v>26</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="10">
         <v>52</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H33" s="24"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="10">
         <v>1</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="10">
         <v>2.1</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="24"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="10">
         <v>4</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5">
         <f>SUM(F29:F35)</f>
         <v>103.83999999999999</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12">
         <v>63.4</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="12">
         <v>63.4</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="27"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="12">
+        <v>95</v>
+      </c>
+      <c r="F38" s="12">
+        <v>95</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="25"/>
+      <c r="B39" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="12">
+        <v>1</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12">
+        <v>219.89</v>
+      </c>
+      <c r="F39" s="12">
+        <v>219.89</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="25"/>
+      <c r="B40" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C40" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12">
         <v>7.25</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F40" s="12">
         <v>7.25</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G40" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="27"/>
-    </row>
-    <row r="39" spans="1:8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11">
-        <f>SUM(F37:F38)</f>
-        <v>70.650000000000006</v>
-      </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5">
+        <f>SUM(F37:F40)</f>
+        <v>385.53999999999996</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29">
-        <f>SUM(F6,F15,F28,F36,F39)</f>
-        <v>766.69</v>
-      </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14">
+        <f>SUM(F6,F15,F28,F36,F41)</f>
+        <v>1081.58</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H7:H14"/>
-    <mergeCell ref="G7:G14"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="D2:D5"/>
     <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A37:A40"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="F2:F5"/>
@@ -1909,6 +1960,11 @@
     <mergeCell ref="E7:E14"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A16:A27"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H7:H14"/>
+    <mergeCell ref="G7:G14"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="D2:D5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
